--- a/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
+++ b/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>2025-05-12 04:05:47</t>
+  </si>
+  <si>
+    <t>2025-05-15 22:55:02</t>
+  </si>
+  <si>
+    <t>2025-05-15 23:03:32</t>
   </si>
 </sst>
 </file>
@@ -1340,6 +1346,190 @@
         <v>87526927</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>652253600</v>
+      </c>
+      <c r="F42">
+        <v>399318</v>
+      </c>
+      <c r="G42">
+        <v>76399318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>652253600</v>
+      </c>
+      <c r="F43">
+        <v>400623</v>
+      </c>
+      <c r="G43">
+        <v>77400623</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>655948800</v>
+      </c>
+      <c r="F44">
+        <v>553460</v>
+      </c>
+      <c r="G44">
+        <v>86553460</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>652147400</v>
+      </c>
+      <c r="F45">
+        <v>394905</v>
+      </c>
+      <c r="G45">
+        <v>76394905</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>81</v>
+      </c>
+      <c r="E46">
+        <v>721339800</v>
+      </c>
+      <c r="F46">
+        <v>468508</v>
+      </c>
+      <c r="G46">
+        <v>81468508</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>81</v>
+      </c>
+      <c r="E47">
+        <v>721339800</v>
+      </c>
+      <c r="F47">
+        <v>473573</v>
+      </c>
+      <c r="G47">
+        <v>81473573</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>88</v>
+      </c>
+      <c r="E48">
+        <v>723340200</v>
+      </c>
+      <c r="F48">
+        <v>556207</v>
+      </c>
+      <c r="G48">
+        <v>88556207</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <v>721182700</v>
+      </c>
+      <c r="F49">
+        <v>464161</v>
+      </c>
+      <c r="G49">
+        <v>81464161</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
+++ b/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>2025-05-15 23:03:32</t>
+  </si>
+  <si>
+    <t>2025-05-19 06:36:14</t>
+  </si>
+  <si>
+    <t>2025-05-19 07:52:23</t>
+  </si>
+  <si>
+    <t>2025-05-19 07:52:50</t>
+  </si>
+  <si>
+    <t>2025-05-19 07:53:26</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1542,374 @@
         <v>81464161</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>88</v>
+      </c>
+      <c r="E50">
+        <v>641062800</v>
+      </c>
+      <c r="F50">
+        <v>440106</v>
+      </c>
+      <c r="G50">
+        <v>88440106</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>641062800</v>
+      </c>
+      <c r="F51">
+        <v>439386</v>
+      </c>
+      <c r="G51">
+        <v>85439386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>88</v>
+      </c>
+      <c r="E52">
+        <v>642934600</v>
+      </c>
+      <c r="F52">
+        <v>519128</v>
+      </c>
+      <c r="G52">
+        <v>88519128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>88</v>
+      </c>
+      <c r="E53">
+        <v>640909100</v>
+      </c>
+      <c r="F53">
+        <v>455053</v>
+      </c>
+      <c r="G53">
+        <v>88455053</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>84</v>
+      </c>
+      <c r="E54">
+        <v>731996300</v>
+      </c>
+      <c r="F54">
+        <v>402934</v>
+      </c>
+      <c r="G54">
+        <v>84402934</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>84</v>
+      </c>
+      <c r="E55">
+        <v>731996300</v>
+      </c>
+      <c r="F55">
+        <v>410745</v>
+      </c>
+      <c r="G55">
+        <v>84410745</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>84</v>
+      </c>
+      <c r="E56">
+        <v>732715400</v>
+      </c>
+      <c r="F56">
+        <v>451555</v>
+      </c>
+      <c r="G56">
+        <v>84451555</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>82</v>
+      </c>
+      <c r="E57">
+        <v>731839200</v>
+      </c>
+      <c r="F57">
+        <v>406285</v>
+      </c>
+      <c r="G57">
+        <v>82406285</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>88</v>
+      </c>
+      <c r="E58">
+        <v>747443900</v>
+      </c>
+      <c r="F58">
+        <v>531484</v>
+      </c>
+      <c r="G58">
+        <v>88531484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>747443900</v>
+      </c>
+      <c r="F59">
+        <v>504021</v>
+      </c>
+      <c r="G59">
+        <v>88504021</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>88</v>
+      </c>
+      <c r="E60">
+        <v>747501100</v>
+      </c>
+      <c r="F60">
+        <v>534725</v>
+      </c>
+      <c r="G60">
+        <v>88534725</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>747353900</v>
+      </c>
+      <c r="F61">
+        <v>512072</v>
+      </c>
+      <c r="G61">
+        <v>88512072</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>88</v>
+      </c>
+      <c r="E62">
+        <v>700834000</v>
+      </c>
+      <c r="F62">
+        <v>501016</v>
+      </c>
+      <c r="G62">
+        <v>88501016</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <v>700834000</v>
+      </c>
+      <c r="F63">
+        <v>511138</v>
+      </c>
+      <c r="G63">
+        <v>88511138</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>87</v>
+      </c>
+      <c r="E64">
+        <v>700883900</v>
+      </c>
+      <c r="F64">
+        <v>499743</v>
+      </c>
+      <c r="G64">
+        <v>87499743</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>88</v>
+      </c>
+      <c r="E65">
+        <v>700753000</v>
+      </c>
+      <c r="F65">
+        <v>494785</v>
+      </c>
+      <c r="G65">
+        <v>88494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
+++ b/osro_history-safe_deadline guard--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>2025-05-19 07:53:26</t>
+  </si>
+  <si>
+    <t>2025-05-21 06:27:02</t>
   </si>
 </sst>
 </file>
@@ -1910,6 +1913,98 @@
         <v>88494785</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c r="E66">
+        <v>267619700</v>
+      </c>
+      <c r="F66">
+        <v>222820</v>
+      </c>
+      <c r="G66">
+        <v>30222820</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>267619700</v>
+      </c>
+      <c r="F67">
+        <v>207032</v>
+      </c>
+      <c r="G67">
+        <v>30207032</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <v>273801300</v>
+      </c>
+      <c r="F68">
+        <v>309041</v>
+      </c>
+      <c r="G68">
+        <v>30309041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>267640800</v>
+      </c>
+      <c r="F69">
+        <v>227247</v>
+      </c>
+      <c r="G69">
+        <v>30227247</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>